--- a/self_assessment/sprint2/PI-2023-24 Self-Assessment.xlsx
+++ b/self_assessment/sprint2/PI-2023-24 Self-Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISEP\2Semetre\lei-24-s2-g22\self_assessment\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DBDBE1-99ED-440A-B625-0BE509FD351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{027C93DB-BF16-4953-B24C-960C7E1FF11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1832,7 +1832,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2532,8 +2532,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2728,7 +2728,7 @@
         <v>142</v>
       </c>
       <c r="C9" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="14" t="s">
@@ -2848,7 +2848,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="14" t="s">
@@ -3235,7 +3235,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3769,7 +3769,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4589,12 +4589,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4782,15 +4779,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4814,17 +4822,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>